--- a/data/trans_orig/P21D6_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D6_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{978D5342-D403-4815-8A6C-C2F089358129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BDE1E9B-BD5B-4975-8EDE-A1E471D9FE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7262ADEC-7625-4010-9F3F-5E5F6E19A0E4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{14FB1186-D462-42BA-AE4E-D71B6AFB77B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="238">
-  <si>
-    <t>Población que, necesitandolo, no pudo recibir atención fisioterapéutica en 2023 (Tasa respuesta: 43,82%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="240">
+  <si>
+    <t>Población que, necesitándolo, no pudo recibir atención fisioterapéutica en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>90,48%</t>
   </si>
   <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
   </si>
   <si>
     <t>90,64%</t>
   </si>
   <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
   </si>
   <si>
     <t>90,55%</t>
   </si>
   <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,649 +104,655 @@
     <t>7,54%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
   </si>
   <si>
     <t>7,08%</t>
   </si>
   <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>2,82%</t>
+    <t>1,77%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1161,7 +1167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49D408B-B54C-4E86-85CC-165B45AFB066}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6ADD61-C99D-47A1-A66A-51E73586DB68}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1886,7 +1892,7 @@
         <v>95</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1901,13 +1907,13 @@
         <v>1228</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1970,10 +1976,10 @@
         <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -1982,13 +1988,13 @@
         <v>3701</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2044,7 +2050,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2056,13 +2062,13 @@
         <v>246264</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>467</v>
@@ -2071,13 +2077,13 @@
         <v>311076</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M19" s="7">
         <v>717</v>
@@ -2086,13 +2092,13 @@
         <v>557340</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2107,13 +2113,13 @@
         <v>88908</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -2122,13 +2128,13 @@
         <v>25698</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>78</v>
@@ -2137,13 +2143,13 @@
         <v>114606</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,13 +2164,13 @@
         <v>9098</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -2173,13 +2179,13 @@
         <v>9517</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -2188,13 +2194,13 @@
         <v>18614</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,10 +2215,10 @@
         <v>3170</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>138</v>
@@ -2334,7 +2340,7 @@
         <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="M24" s="7">
         <v>578</v>
@@ -2343,13 +2349,13 @@
         <v>422694</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,13 +2370,13 @@
         <v>21053</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -2379,13 +2385,13 @@
         <v>33387</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="M25" s="7">
         <v>80</v>
@@ -2421,7 +2427,7 @@
         <v>163</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2430,13 +2436,13 @@
         <v>4817</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>72</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -2445,13 +2451,13 @@
         <v>16100</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,13 +2472,13 @@
         <v>2410</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -2481,13 +2487,13 @@
         <v>6973</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M27" s="7">
         <v>13</v>
@@ -2496,13 +2502,13 @@
         <v>9383</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,7 +2564,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2570,13 +2576,13 @@
         <v>269838</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H29" s="7">
         <v>607</v>
@@ -2585,13 +2591,13 @@
         <v>331673</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>1007</v>
@@ -2600,13 +2606,13 @@
         <v>601511</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2627,13 @@
         <v>18016</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H30" s="7">
         <v>73</v>
@@ -2636,13 +2642,13 @@
         <v>39109</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M30" s="7">
         <v>99</v>
@@ -2651,13 +2657,13 @@
         <v>57125</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2678,13 @@
         <v>3230</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="H31" s="7">
         <v>27</v>
@@ -2687,13 +2693,13 @@
         <v>16252</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M31" s="7">
         <v>32</v>
@@ -2702,13 +2708,13 @@
         <v>19482</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>42</v>
+        <v>168</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,13 +2729,13 @@
         <v>1542</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -2738,13 +2744,13 @@
         <v>6329</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>101</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M32" s="7">
         <v>13</v>
@@ -2753,13 +2759,13 @@
         <v>7871</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +2833,13 @@
         <v>1293273</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H34" s="7">
         <v>2044</v>
@@ -2842,13 +2848,13 @@
         <v>1462081</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M34" s="7">
         <v>3346</v>
@@ -2857,13 +2863,13 @@
         <v>2755355</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,13 +2884,13 @@
         <v>183888</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H35" s="7">
         <v>240</v>
@@ -2893,13 +2899,13 @@
         <v>159254</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="M35" s="7">
         <v>362</v>
@@ -2908,13 +2914,13 @@
         <v>343142</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2935,13 @@
         <v>30585</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>105</v>
+        <v>226</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H36" s="7">
         <v>57</v>
@@ -2944,13 +2950,13 @@
         <v>40486</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M36" s="7">
         <v>83</v>
@@ -2959,13 +2965,13 @@
         <v>71071</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>143</v>
+        <v>232</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>229</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +2986,13 @@
         <v>8856</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H37" s="7">
         <v>32</v>
@@ -2995,13 +3001,13 @@
         <v>21465</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M37" s="7">
         <v>40</v>
@@ -3010,13 +3016,13 @@
         <v>30320</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>236</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,7 +3078,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D6_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D6_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BDE1E9B-BD5B-4975-8EDE-A1E471D9FE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7626D56-C5AD-4CBB-9C72-93D3B5344AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{14FB1186-D462-42BA-AE4E-D71B6AFB77B5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5C5724DD-2593-485E-B037-884DBFCA4394}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1167,7 +1167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6ADD61-C99D-47A1-A66A-51E73586DB68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E355EBC-B0CD-427C-A433-AB45370D9A8F}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D6_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D6_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7626D56-C5AD-4CBB-9C72-93D3B5344AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2D77A5A-B06F-42BA-BCD0-69D494E6C8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5C5724DD-2593-485E-B037-884DBFCA4394}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28E2919E-FDA9-426D-9175-912BE646A0FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="238">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención fisioterapéutica en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>90,48%</t>
   </si>
   <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>90,64%</t>
   </si>
   <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
   </si>
   <si>
     <t>90,55%</t>
   </si>
   <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>7,54%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
   </si>
   <si>
     <t>6,52%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>7,08%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -137,622 +137,616 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,22%</t>
+    <t>10,86%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
     <t>10,04%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
   </si>
   <si>
     <t>12,13%</t>
   </si>
   <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
   </si>
   <si>
     <t>9,46%</t>
   </si>
   <si>
-    <t>10,77%</t>
+    <t>8,34%</t>
   </si>
   <si>
     <t>10,72%</t>
   </si>
   <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>3,32%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>1,77%</t>
+    <t>2,82%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,27%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1167,7 +1161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E355EBC-B0CD-427C-A433-AB45370D9A8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FF7582-6105-415B-8313-79A2433C2B11}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1892,7 +1886,7 @@
         <v>95</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1907,13 +1901,13 @@
         <v>1228</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1976,10 +1970,10 @@
         <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -1988,13 +1982,13 @@
         <v>3701</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,7 +2044,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2062,13 +2056,13 @@
         <v>246264</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>467</v>
@@ -2077,13 +2071,13 @@
         <v>311076</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M19" s="7">
         <v>717</v>
@@ -2092,13 +2086,13 @@
         <v>557340</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,13 +2107,13 @@
         <v>88908</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
@@ -2128,13 +2122,13 @@
         <v>25698</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>78</v>
@@ -2143,13 +2137,13 @@
         <v>114606</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,13 +2158,13 @@
         <v>9098</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -2179,13 +2173,13 @@
         <v>9517</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -2194,13 +2188,13 @@
         <v>18614</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,10 +2209,10 @@
         <v>3170</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>138</v>
@@ -2340,7 +2334,7 @@
         <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>578</v>
@@ -2349,13 +2343,13 @@
         <v>422694</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,13 +2364,13 @@
         <v>21053</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>56</v>
@@ -2385,13 +2379,13 @@
         <v>33387</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="M25" s="7">
         <v>80</v>
@@ -2427,7 +2421,7 @@
         <v>163</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2436,13 +2430,13 @@
         <v>4817</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>72</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -2451,13 +2445,13 @@
         <v>16100</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,13 +2466,13 @@
         <v>2410</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
@@ -2487,13 +2481,13 @@
         <v>6973</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M27" s="7">
         <v>13</v>
@@ -2502,13 +2496,13 @@
         <v>9383</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2564,7 +2558,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2576,13 +2570,13 @@
         <v>269838</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H29" s="7">
         <v>607</v>
@@ -2591,13 +2585,13 @@
         <v>331673</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M29" s="7">
         <v>1007</v>
@@ -2606,13 +2600,13 @@
         <v>601511</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,13 +2621,13 @@
         <v>18016</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H30" s="7">
         <v>73</v>
@@ -2642,13 +2636,13 @@
         <v>39109</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M30" s="7">
         <v>99</v>
@@ -2657,13 +2651,13 @@
         <v>57125</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,13 +2672,13 @@
         <v>3230</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="H31" s="7">
         <v>27</v>
@@ -2693,13 +2687,13 @@
         <v>16252</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M31" s="7">
         <v>32</v>
@@ -2708,13 +2702,13 @@
         <v>19482</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,13 +2723,13 @@
         <v>1542</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -2744,13 +2738,13 @@
         <v>6329</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>101</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M32" s="7">
         <v>13</v>
@@ -2759,13 +2753,13 @@
         <v>7871</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,13 +2827,13 @@
         <v>1293273</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H34" s="7">
         <v>2044</v>
@@ -2848,13 +2842,13 @@
         <v>1462081</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M34" s="7">
         <v>3346</v>
@@ -2863,13 +2857,13 @@
         <v>2755355</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,13 +2878,13 @@
         <v>183888</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H35" s="7">
         <v>240</v>
@@ -2899,13 +2893,13 @@
         <v>159254</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="M35" s="7">
         <v>362</v>
@@ -2914,13 +2908,13 @@
         <v>343142</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2935,13 +2929,13 @@
         <v>30585</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>226</v>
+        <v>105</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H36" s="7">
         <v>57</v>
@@ -2950,13 +2944,13 @@
         <v>40486</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M36" s="7">
         <v>83</v>
@@ -2965,13 +2959,13 @@
         <v>71071</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,13 +2980,13 @@
         <v>8856</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H37" s="7">
         <v>32</v>
@@ -3001,13 +2995,13 @@
         <v>21465</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M37" s="7">
         <v>40</v>
@@ -3016,13 +3010,13 @@
         <v>30320</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>105</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,7 +3072,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D6_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D6_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2D77A5A-B06F-42BA-BCD0-69D494E6C8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDF12A54-8E78-4429-89A0-40E8EA2E7DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28E2919E-FDA9-426D-9175-912BE646A0FB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A398DC54-E5C3-41FC-A66B-0AA39C80FE13}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="274">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención fisioterapéutica en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -65,688 +65,796 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
-    <t>7,54%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1161,8 +1269,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FF7582-6105-415B-8313-79A2433C2B11}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D21C787-F630-4E98-AA27-E3C752E13C4D}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1282,7 +1390,7 @@
         <v>78</v>
       </c>
       <c r="D4" s="7">
-        <v>173511</v>
+        <v>184190</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1297,7 +1405,7 @@
         <v>84</v>
       </c>
       <c r="I4" s="7">
-        <v>143811</v>
+        <v>126871</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1312,7 +1420,7 @@
         <v>162</v>
       </c>
       <c r="N4" s="7">
-        <v>317323</v>
+        <v>311060</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1333,7 +1441,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>14461</v>
+        <v>15643</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1348,7 +1456,7 @@
         <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>10348</v>
+        <v>9019</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1363,7 +1471,7 @@
         <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>24808</v>
+        <v>24662</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1384,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>3803</v>
+        <v>4116</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1399,7 +1507,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>4496</v>
+        <v>4456</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1414,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>8299</v>
+        <v>8572</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
@@ -1486,7 +1594,7 @@
         <v>85</v>
       </c>
       <c r="D8" s="7">
-        <v>191775</v>
+        <v>203949</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>44</v>
@@ -1501,7 +1609,7 @@
         <v>93</v>
       </c>
       <c r="I8" s="7">
-        <v>158654</v>
+        <v>140346</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1516,7 +1624,7 @@
         <v>178</v>
       </c>
       <c r="N8" s="7">
-        <v>350430</v>
+        <v>344294</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>44</v>
@@ -1539,7 +1647,7 @@
         <v>131</v>
       </c>
       <c r="D9" s="7">
-        <v>182817</v>
+        <v>180871</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>46</v>
@@ -1554,7 +1662,7 @@
         <v>207</v>
       </c>
       <c r="I9" s="7">
-        <v>231878</v>
+        <v>267999</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>49</v>
@@ -1569,7 +1677,7 @@
         <v>338</v>
       </c>
       <c r="N9" s="7">
-        <v>414696</v>
+        <v>448870</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>52</v>
@@ -1590,7 +1698,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>20025</v>
+        <v>20474</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>55</v>
@@ -1605,7 +1713,7 @@
         <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>20457</v>
+        <v>18922</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>58</v>
@@ -1620,7 +1728,7 @@
         <v>29</v>
       </c>
       <c r="N10" s="7">
-        <v>40482</v>
+        <v>39396</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>61</v>
@@ -1641,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1942</v>
+        <v>1621</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>64</v>
@@ -1656,7 +1764,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>2679</v>
+        <v>2539</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>66</v>
@@ -1671,7 +1779,7 @@
         <v>4</v>
       </c>
       <c r="N11" s="7">
-        <v>4621</v>
+        <v>4160</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>69</v>
@@ -1692,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>1733</v>
+        <v>1756</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>72</v>
@@ -1707,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>1815</v>
+        <v>1660</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>74</v>
@@ -1722,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>3548</v>
+        <v>3415</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -1743,7 +1851,7 @@
         <v>145</v>
       </c>
       <c r="D13" s="7">
-        <v>206518</v>
+        <v>204722</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>44</v>
@@ -1758,7 +1866,7 @@
         <v>228</v>
       </c>
       <c r="I13" s="7">
-        <v>256829</v>
+        <v>291119</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>44</v>
@@ -1773,7 +1881,7 @@
         <v>373</v>
       </c>
       <c r="N13" s="7">
-        <v>463347</v>
+        <v>495841</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>44</v>
@@ -1796,7 +1904,7 @@
         <v>202</v>
       </c>
       <c r="D14" s="7">
-        <v>201121</v>
+        <v>192274</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1811,7 +1919,7 @@
         <v>342</v>
       </c>
       <c r="I14" s="7">
-        <v>240671</v>
+        <v>222361</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1826,7 +1934,7 @@
         <v>544</v>
       </c>
       <c r="N14" s="7">
-        <v>441792</v>
+        <v>414635</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1847,7 +1955,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="7">
-        <v>21426</v>
+        <v>22167</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>88</v>
@@ -1862,7 +1970,7 @@
         <v>44</v>
       </c>
       <c r="I15" s="7">
-        <v>30255</v>
+        <v>29325</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>91</v>
@@ -1877,7 +1985,7 @@
         <v>63</v>
       </c>
       <c r="N15" s="7">
-        <v>51681</v>
+        <v>51491</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>94</v>
@@ -1886,7 +1994,7 @@
         <v>95</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1898,46 +2006,46 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1228</v>
+        <v>1046</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>2726</v>
+        <v>2538</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>3954</v>
+        <v>3583</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1958,37 +2066,37 @@
         <v>40</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>3701</v>
+        <v>3466</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>3701</v>
+        <v>3466</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,7 +2108,7 @@
         <v>222</v>
       </c>
       <c r="D18" s="7">
-        <v>223775</v>
+        <v>215486</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>44</v>
@@ -2015,7 +2123,7 @@
         <v>395</v>
       </c>
       <c r="I18" s="7">
-        <v>277353</v>
+        <v>257689</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>44</v>
@@ -2030,7 +2138,7 @@
         <v>617</v>
       </c>
       <c r="N18" s="7">
-        <v>501128</v>
+        <v>473175</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>44</v>
@@ -2044,7 +2152,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2053,46 +2161,46 @@
         <v>250</v>
       </c>
       <c r="D19" s="7">
-        <v>246264</v>
+        <v>234300</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>467</v>
       </c>
       <c r="I19" s="7">
-        <v>311076</v>
+        <v>285039</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M19" s="7">
         <v>717</v>
       </c>
       <c r="N19" s="7">
-        <v>557340</v>
+        <v>519339</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,46 +2212,46 @@
         <v>35</v>
       </c>
       <c r="D20" s="7">
-        <v>88908</v>
+        <v>280504</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>43</v>
       </c>
       <c r="I20" s="7">
-        <v>25698</v>
+        <v>24378</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>78</v>
       </c>
       <c r="N20" s="7">
-        <v>114606</v>
+        <v>304882</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,46 +2263,46 @@
         <v>8</v>
       </c>
       <c r="D21" s="7">
-        <v>9098</v>
+        <v>8672</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
       </c>
       <c r="I21" s="7">
-        <v>9517</v>
+        <v>8919</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
       </c>
       <c r="N21" s="7">
-        <v>18614</v>
+        <v>17591</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,13 +2314,13 @@
         <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>3170</v>
+        <v>3082</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>138</v>
@@ -2221,25 +2329,25 @@
         <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>2646</v>
+        <v>2525</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
       </c>
       <c r="N22" s="7">
-        <v>5816</v>
+        <v>5607</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>142</v>
@@ -2257,7 +2365,7 @@
         <v>296</v>
       </c>
       <c r="D23" s="7">
-        <v>347440</v>
+        <v>526558</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>44</v>
@@ -2272,7 +2380,7 @@
         <v>528</v>
       </c>
       <c r="I23" s="7">
-        <v>348936</v>
+        <v>320862</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>44</v>
@@ -2287,7 +2395,7 @@
         <v>824</v>
       </c>
       <c r="N23" s="7">
-        <v>696376</v>
+        <v>847419</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>44</v>
@@ -2310,7 +2418,7 @@
         <v>241</v>
       </c>
       <c r="D24" s="7">
-        <v>219720</v>
+        <v>204379</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>145</v>
@@ -2325,7 +2433,7 @@
         <v>337</v>
       </c>
       <c r="I24" s="7">
-        <v>202974</v>
+        <v>185345</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>148</v>
@@ -2340,7 +2448,7 @@
         <v>578</v>
       </c>
       <c r="N24" s="7">
-        <v>422694</v>
+        <v>389724</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>151</v>
@@ -2361,7 +2469,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="7">
-        <v>21053</v>
+        <v>20087</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>154</v>
@@ -2376,7 +2484,7 @@
         <v>56</v>
       </c>
       <c r="I25" s="7">
-        <v>33387</v>
+        <v>31018</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>157</v>
@@ -2385,19 +2493,19 @@
         <v>158</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>80</v>
       </c>
       <c r="N25" s="7">
-        <v>54440</v>
+        <v>51104</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>161</v>
@@ -2412,7 +2520,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="7">
-        <v>11283</v>
+        <v>10695</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>162</v>
@@ -2421,37 +2529,37 @@
         <v>163</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
       </c>
       <c r="I26" s="7">
-        <v>4817</v>
+        <v>4521</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>72</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
       </c>
       <c r="N26" s="7">
-        <v>16100</v>
+        <v>15216</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,46 +2571,46 @@
         <v>2</v>
       </c>
       <c r="D27" s="7">
-        <v>2410</v>
+        <v>2313</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H27" s="7">
         <v>11</v>
       </c>
       <c r="I27" s="7">
-        <v>6973</v>
+        <v>6443</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M27" s="7">
         <v>13</v>
       </c>
       <c r="N27" s="7">
-        <v>9383</v>
+        <v>8756</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,7 +2622,7 @@
         <v>277</v>
       </c>
       <c r="D28" s="7">
-        <v>254467</v>
+        <v>237474</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>44</v>
@@ -2529,7 +2637,7 @@
         <v>411</v>
       </c>
       <c r="I28" s="7">
-        <v>248151</v>
+        <v>227326</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>44</v>
@@ -2544,7 +2652,7 @@
         <v>688</v>
       </c>
       <c r="N28" s="7">
-        <v>502618</v>
+        <v>464800</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>44</v>
@@ -2558,55 +2666,55 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>400</v>
+        <v>218</v>
       </c>
       <c r="D29" s="7">
-        <v>269838</v>
+        <v>140772</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H29" s="7">
-        <v>607</v>
+        <v>308</v>
       </c>
       <c r="I29" s="7">
-        <v>331673</v>
+        <v>151569</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M29" s="7">
-        <v>1007</v>
+        <v>526</v>
       </c>
       <c r="N29" s="7">
-        <v>601511</v>
+        <v>292341</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,49 +2723,49 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D30" s="7">
-        <v>18016</v>
+        <v>12281</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H30" s="7">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="I30" s="7">
-        <v>39109</v>
+        <v>20543</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M30" s="7">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="N30" s="7">
-        <v>57125</v>
+        <v>32824</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,49 +2774,49 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>3230</v>
+        <v>1644</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="H31" s="7">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I31" s="7">
-        <v>16252</v>
+        <v>9056</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M31" s="7">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N31" s="7">
-        <v>19482</v>
+        <v>10699</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>197</v>
+        <v>68</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2717,49 +2825,49 @@
         <v>39</v>
       </c>
       <c r="C32" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>1542</v>
+        <v>877</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H32" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I32" s="7">
-        <v>6329</v>
+        <v>4110</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M32" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N32" s="7">
-        <v>7871</v>
+        <v>4987</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,10 +2876,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>433</v>
+        <v>241</v>
       </c>
       <c r="D33" s="7">
-        <v>292626</v>
+        <v>155574</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>44</v>
@@ -2783,10 +2891,10 @@
         <v>44</v>
       </c>
       <c r="H33" s="7">
-        <v>718</v>
+        <v>374</v>
       </c>
       <c r="I33" s="7">
-        <v>393363</v>
+        <v>185277</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>44</v>
@@ -2798,10 +2906,10 @@
         <v>44</v>
       </c>
       <c r="M33" s="7">
-        <v>1151</v>
+        <v>615</v>
       </c>
       <c r="N33" s="7">
-        <v>685989</v>
+        <v>340851</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>44</v>
@@ -2815,55 +2923,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>209</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1302</v>
+        <v>182</v>
       </c>
       <c r="D34" s="7">
-        <v>1293273</v>
+        <v>111237</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H34" s="7">
-        <v>2044</v>
+        <v>299</v>
       </c>
       <c r="I34" s="7">
-        <v>1462081</v>
+        <v>147331</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M34" s="7">
-        <v>3346</v>
+        <v>481</v>
       </c>
       <c r="N34" s="7">
-        <v>2755355</v>
+        <v>258569</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,49 +2980,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="D35" s="7">
-        <v>183888</v>
+        <v>4975</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H35" s="7">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="I35" s="7">
-        <v>159254</v>
+        <v>15160</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="M35" s="7">
-        <v>362</v>
+        <v>38</v>
       </c>
       <c r="N35" s="7">
-        <v>343142</v>
+        <v>20136</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,49 +3031,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D36" s="7">
-        <v>30585</v>
+        <v>1424</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H36" s="7">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="I36" s="7">
-        <v>40486</v>
+        <v>5840</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M36" s="7">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="N36" s="7">
-        <v>71071</v>
+        <v>7264</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>143</v>
+        <v>233</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,49 +3082,49 @@
         <v>39</v>
       </c>
       <c r="C37" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>8856</v>
+        <v>570</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>231</v>
+        <v>32</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H37" s="7">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="I37" s="7">
-        <v>21465</v>
+        <v>1717</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M37" s="7">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="N37" s="7">
-        <v>30320</v>
+        <v>2288</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,63 +3133,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>192</v>
+      </c>
+      <c r="D38" s="7">
+        <v>118206</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="7">
+        <v>344</v>
+      </c>
+      <c r="I38" s="7">
+        <v>170049</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M38" s="7">
+        <v>536</v>
+      </c>
+      <c r="N38" s="7">
+        <v>288256</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1302</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1248024</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H39" s="7">
+        <v>2044</v>
+      </c>
+      <c r="I39" s="7">
+        <v>1386513</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M39" s="7">
+        <v>3346</v>
+      </c>
+      <c r="N39" s="7">
+        <v>2634537</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>122</v>
+      </c>
+      <c r="D40" s="7">
+        <v>376130</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H40" s="7">
+        <v>240</v>
+      </c>
+      <c r="I40" s="7">
+        <v>148365</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M40" s="7">
+        <v>362</v>
+      </c>
+      <c r="N40" s="7">
+        <v>524495</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>26</v>
+      </c>
+      <c r="D41" s="7">
+        <v>29217</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H41" s="7">
+        <v>57</v>
+      </c>
+      <c r="I41" s="7">
+        <v>37868</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M41" s="7">
+        <v>83</v>
+      </c>
+      <c r="N41" s="7">
+        <v>67086</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="7">
+        <v>8</v>
+      </c>
+      <c r="D42" s="7">
+        <v>8597</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H42" s="7">
+        <v>32</v>
+      </c>
+      <c r="I42" s="7">
+        <v>19921</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M42" s="7">
+        <v>40</v>
+      </c>
+      <c r="N42" s="7">
+        <v>28518</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1458</v>
       </c>
-      <c r="D38" s="7">
-        <v>1516602</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>1661969</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="7">
         <v>2373</v>
       </c>
-      <c r="I38" s="7">
-        <v>1683286</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>1592667</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M43" s="7">
         <v>3831</v>
       </c>
-      <c r="N38" s="7">
-        <v>3199888</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>237</v>
+      <c r="N43" s="7">
+        <v>3254636</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
